--- a/xlsx/北美洲_intext.xlsx
+++ b/xlsx/北美洲_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="500">
   <si>
     <t>北美洲</t>
   </si>
@@ -29,7 +29,7 @@
     <t>自然地理学</t>
   </si>
   <si>
-    <t>政策_政策_美國_北美洲</t>
+    <t>政策_政策_美国_北美洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -125,31 +125,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE%E5%8F%8A%E6%A0%BC%E7%91%9E%E9%82%A3%E4%B8%81</t>
   </si>
   <si>
-    <t>聖文森及格瑞那丁</t>
+    <t>圣文森及格瑞那丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%88%A9%E5%93%A5%C2%B7%E7%B6%AD%E6%96%AF%E6%99%AE%E8%A5%BF</t>
   </si>
   <si>
-    <t>亞美利哥·維斯普西</t>
+    <t>亚美利哥·维斯普西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%8A%E7%90%83</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>巴拿馬運河</t>
+    <t>巴拿马运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC</t>
   </si>
   <si>
-    <t>島嶼</t>
+    <t>岛屿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E5%9C%B0</t>
   </si>
   <si>
-    <t>陸地</t>
+    <t>陆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2%E5%8E%86%E5%8F%B2</t>
@@ -299,37 +299,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>格陵蘭島</t>
+    <t>格陵兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%A4%AB%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>班夫國家公園</t>
+    <t>班夫国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%B0%B7%E5%9C%8B%E5%AE%B6%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>死亡谷國家公園</t>
+    <t>死亡谷国家公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E6%B0%B4%E7%9B%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>惡水盆地</t>
+    <t>恶水盆地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -347,19 +347,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
   </si>
   <si>
-    <t>墨西哥灣</t>
+    <t>墨西哥湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>聖羅倫斯河</t>
+    <t>圣罗伦斯河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%9B%B4%E4%BA%9B%E6%B2%B3</t>
   </si>
   <si>
-    <t>馬更些河</t>
+    <t>马更些河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%B2%E7%A9%BA%E6%B2%B3</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
   </si>
   <si>
-    <t>格蘭德河</t>
+    <t>格兰德河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E5%A1%9E%E7%B1%B3%E8%92%82%E7%80%91%E5%B8%83</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E5%8A%A0%E6%8B%89%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>尼亞加拉瀑布</t>
+    <t>尼亚加拉瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%BF%85%E5%88%A9%E7%88%BE%E6%B9%96</t>
   </si>
   <si>
-    <t>蘇必利爾湖</t>
+    <t>苏必利尔湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%80%AB%E6%B9%96</t>
   </si>
   <si>
-    <t>休倫湖</t>
+    <t>休伦湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E6%B9%96</t>
@@ -437,9 +437,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E6%AE%96%E6%B0%91</t>
   </si>
   <si>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%8E%E6%A0%BC%E9%AD%AF%E8%96%A9%E5%85%8B%E9%81%9C%E4%BA%BA</t>
   </si>
   <si>
-    <t>盎格魯薩克遜人</t>
+    <t>盎格鲁萨克逊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E4%BA%BA</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
   </si>
   <si>
-    <t>華人</t>
+    <t>华人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
@@ -503,15 +500,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E7%BE%A4</t>
   </si>
   <si>
@@ -527,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>紐約都會區</t>
+    <t>纽约都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>洛杉磯都會區</t>
+    <t>洛杉矶都会区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Los_Angeles_metropolitan_area</t>
@@ -569,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%A4%9A%E5%80%AB%E5%A4%9A%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>大多倫多地區</t>
+    <t>大多伦多地区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Washington,_D.C._metropolitan_area</t>
@@ -587,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%81%94%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發達國家</t>
+    <t>发达国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -605,13 +596,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
@@ -659,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E8%88%87%E5%87%B1%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>特克斯與凱科斯群島</t>
+    <t>特克斯与凯科斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -671,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -689,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%B2%81%E5%B7%B4</t>
@@ -707,13 +698,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -803,19 +794,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -929,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1031,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -1055,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -1067,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -1109,19 +1100,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
+    <t>赤道多雨气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -1139,7 +1130,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -1151,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E6%B5%B7%E6%B4%8B%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1163,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -1193,7 +1184,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -1211,19 +1202,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -1247,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -1277,13 +1268,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E9%9D%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞非大陸</t>
+    <t>欧亚非大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐亞大陸</t>
+    <t>欧亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
@@ -1295,7 +1286,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>超大陸</t>
+    <t>超大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
@@ -1313,109 +1304,109 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>盤古大陸</t>
+    <t>盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>潘諾西亞大陸</t>
+    <t>潘诺西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>羅迪尼亞大陸</t>
+    <t>罗迪尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大陸</t>
+    <t>哥伦比亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>凱諾蘭大陸</t>
+    <t>凯诺兰大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>妮娜大陸</t>
+    <t>妮娜大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>烏爾大陸</t>
+    <t>乌尔大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>瓦巴拉大陸</t>
+    <t>瓦巴拉大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>北極大陸</t>
+    <t>北极大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿瓦隆尼亞大陸</t>
+    <t>阿瓦隆尼亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>波羅的大陸</t>
+    <t>波罗的大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>辛梅利亞大陸</t>
+    <t>辛梅利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>剛果克拉通</t>
+    <t>刚果克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐美大陸</t>
+    <t>欧美大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>哈薩克大陸</t>
+    <t>哈萨克大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>勞倫大陸</t>
+    <t>劳伦大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
   </si>
   <si>
-    <t>華北陸塊</t>
+    <t>华北陆块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>西伯利亞大陸</t>
+    <t>西伯利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
@@ -1427,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
   </si>
   <si>
-    <t>東南極克拉通</t>
+    <t>东南极克拉通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
@@ -1439,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
   </si>
   <si>
-    <t>凱爾蓋朗海台</t>
+    <t>凯尔盖朗海台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
@@ -1451,25 +1442,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>終極盤古大陸</t>
+    <t>终极盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>阿美西亞大陸</t>
+    <t>阿美西亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新盤古大陸</t>
+    <t>新盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>雷姆利亞大陸</t>
+    <t>雷姆利亚大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
@@ -1481,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>未知的南方大陸</t>
+    <t>未知的南方大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
@@ -1493,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1523,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3895,7 +3886,7 @@
         <v>139</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="G70" t="n">
         <v>11</v>
@@ -3921,10 +3912,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3950,10 +3941,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3979,10 +3970,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4008,10 +3999,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4037,10 +4028,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4066,10 +4057,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4095,10 +4086,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4124,10 +4115,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4153,10 +4144,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4182,10 +4173,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4211,10 +4202,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4240,10 +4231,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4269,10 +4260,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4298,10 +4289,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4327,10 +4318,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4356,10 +4347,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4385,10 +4376,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4414,10 +4405,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4443,10 +4434,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4472,10 +4463,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4501,10 +4492,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4530,10 +4521,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4559,10 +4550,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4588,10 +4579,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4617,10 +4608,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4675,10 +4666,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4704,10 +4695,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4733,10 +4724,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4762,10 +4753,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4791,10 +4782,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4820,10 +4811,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4849,10 +4840,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4878,10 +4869,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4907,10 +4898,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4936,10 +4927,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4965,10 +4956,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4994,10 +4985,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5023,10 +5014,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5052,10 +5043,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5081,10 +5072,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5110,10 +5101,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5139,10 +5130,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5168,10 +5159,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5197,10 +5188,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5226,10 +5217,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5255,10 +5246,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5284,10 +5275,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5313,10 +5304,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>17</v>
@@ -5342,10 +5333,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5371,10 +5362,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5400,10 +5391,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5429,10 +5420,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5458,10 +5449,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -5487,10 +5478,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5516,10 +5507,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5545,10 +5536,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5574,10 +5565,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5603,10 +5594,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5632,10 +5623,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5661,10 +5652,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5690,10 +5681,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5719,10 +5710,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5748,10 +5739,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5777,10 +5768,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>14</v>
@@ -5806,10 +5797,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5835,10 +5826,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5864,10 +5855,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5893,10 +5884,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5922,10 +5913,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5951,10 +5942,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5980,10 +5971,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6009,10 +6000,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6038,10 +6029,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6067,10 +6058,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6096,10 +6087,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6125,10 +6116,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6154,10 +6145,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6183,10 +6174,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6212,10 +6203,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6241,10 +6232,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6270,10 +6261,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6299,10 +6290,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6328,10 +6319,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6357,10 +6348,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6386,10 +6377,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6415,10 +6406,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>47</v>
@@ -6444,7 +6435,7 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
         <v>8</v>
@@ -6473,10 +6464,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6502,10 +6493,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -6531,10 +6522,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6560,10 +6551,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6618,7 +6609,7 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F164" t="s">
         <v>12</v>
@@ -6647,10 +6638,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6676,10 +6667,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6705,10 +6696,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6734,10 +6725,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6763,10 +6754,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -6792,10 +6783,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F170" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6821,10 +6812,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6850,10 +6841,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F172" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6879,10 +6870,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F173" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6908,10 +6899,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F174" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6937,10 +6928,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -6966,10 +6957,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F176" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6995,10 +6986,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F177" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7024,10 +7015,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7053,10 +7044,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7082,10 +7073,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7111,10 +7102,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7140,10 +7131,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7169,10 +7160,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -7198,10 +7189,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7227,10 +7218,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7256,10 +7247,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7285,10 +7276,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7314,10 +7305,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7343,10 +7334,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7372,10 +7363,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7401,10 +7392,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7430,10 +7421,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7459,10 +7450,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7488,10 +7479,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7517,10 +7508,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7546,10 +7537,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7575,10 +7566,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7604,10 +7595,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7633,10 +7624,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7662,10 +7653,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7691,10 +7682,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -7720,10 +7711,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7749,10 +7740,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7778,10 +7769,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7807,10 +7798,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7836,10 +7827,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7865,10 +7856,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7894,10 +7885,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7923,10 +7914,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7952,10 +7943,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7981,10 +7972,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8010,10 +8001,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8039,10 +8030,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8068,10 +8059,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8097,10 +8088,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F215" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8126,10 +8117,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F216" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8155,10 +8146,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F217" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8184,10 +8175,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F218" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8213,10 +8204,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F219" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8271,10 +8262,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8300,10 +8291,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F222" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -8329,10 +8320,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F223" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8358,10 +8349,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F224" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8387,10 +8378,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F225" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8416,10 +8407,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8445,10 +8436,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8474,10 +8465,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -8503,10 +8494,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8532,10 +8523,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8561,10 +8552,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8590,10 +8581,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8619,10 +8610,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8648,10 +8639,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -8677,10 +8668,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8706,10 +8697,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F236" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8735,10 +8726,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8764,10 +8755,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8793,10 +8784,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8822,10 +8813,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8851,10 +8842,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8880,10 +8871,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8909,10 +8900,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8938,10 +8929,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8967,10 +8958,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8996,10 +8987,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9025,10 +9016,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9054,10 +9045,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9083,10 +9074,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9112,10 +9103,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9141,10 +9132,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9170,10 +9161,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F252" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9199,10 +9190,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9228,10 +9219,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9257,10 +9248,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9286,10 +9277,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9315,10 +9306,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F257" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9344,10 +9335,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F258" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9373,10 +9364,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F259" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9402,10 +9393,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F260" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G260" t="n">
         <v>3</v>
@@ -9431,10 +9422,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9460,10 +9451,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F262" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9489,10 +9480,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9518,10 +9509,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F264" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9547,10 +9538,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F265" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>

--- a/xlsx/北美洲_intext.xlsx
+++ b/xlsx/北美洲_intext.xlsx
@@ -29,7 +29,7 @@
     <t>自然地理学</t>
   </si>
   <si>
-    <t>政策_政策_美國_北美洲</t>
+    <t>体育运动_体育运动_奥林匹克运动会_北美洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6</t>
